--- a/Dokumenter/Risk management.xlsx
+++ b/Dokumenter/Risk management.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="38400" windowHeight="23560" tabRatio="500"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="19200" windowHeight="18240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,31 +19,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Identified Risks</t>
   </si>
   <si>
-    <t>Likelihood of occurring</t>
-  </si>
-  <si>
-    <t>Consequence</t>
-  </si>
-  <si>
-    <t>To expensive hardware platform for dismounted COP</t>
-  </si>
-  <si>
-    <t>Realtime communication is to slow.</t>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Realtime communication is too slow.</t>
+  </si>
+  <si>
+    <t>Safety sensors is not accurate enough.</t>
+  </si>
+  <si>
+    <t>Device tracking is not accurate enough.</t>
+  </si>
+  <si>
+    <t>Too expensive hardware platform for dismounted COP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size and design of dismounted COP makes it unwearable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment requirements of the dismounted COP cannot be met. </t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -69,18 +107,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -102,22 +131,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="132"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="32"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Likelihood, Consequence</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="66675">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="30"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="42576128"/>
+        <c:axId val="42574592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="42576128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42574592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42574592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42576128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,43 +713,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="55.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Dokumenter/Risk management.xlsx
+++ b/Dokumenter/Risk management.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Identified Risks</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Hardware</t>
   </si>
 </sst>
 </file>
@@ -159,12 +165,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
@@ -247,10 +255,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$C$2:$C$7</c:f>
+              <c:f>'Ark1'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -268,16 +276,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$D$2:$D$7</c:f>
+              <c:f>'Ark1'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -295,6 +309,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,11 +329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42576128"/>
-        <c:axId val="42574592"/>
+        <c:axId val="31433856"/>
+        <c:axId val="31435392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42576128"/>
+        <c:axId val="31433856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -323,12 +343,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42574592"/>
+        <c:crossAx val="31435392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42574592"/>
+        <c:axId val="31435392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -339,7 +359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42576128"/>
+        <c:crossAx val="31433856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -713,17 +733,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -828,8 +848,29 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
